--- a/biology/Botanique/Marjolin_(pomme_de_terre)/Marjolin_(pomme_de_terre).xlsx
+++ b/biology/Botanique/Marjolin_(pomme_de_terre)/Marjolin_(pomme_de_terre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Marjolin est une ancienne variété française de pommes de terre, d'origine britannique, d'ascendance génétique inconnue. Sélectionnée vers le début du XIXe siècle, cette variété hâtive fut cultivée en France jusqu'à la Seconde Guerre mondiale.
 </t>
